--- a/code/ScenarioResults.xlsx
+++ b/code/ScenarioResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbaldree/Google Drive/smu/capstone/capstone/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181EF07-456D-1349-94E6-E81526E0A9F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207CC00-04F7-6145-875A-C92420A0B35A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="440" windowWidth="22220" windowHeight="16940" xr2:uid="{EDAC3D53-0CD0-004D-9A0A-4A019D5DEB61}"/>
+    <workbookView xWindow="15900" yWindow="440" windowWidth="22220" windowHeight="16940" xr2:uid="{EDAC3D53-0CD0-004D-9A0A-4A019D5DEB61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>ltc</t>
-  </si>
-  <si>
-    <t>btc</t>
-  </si>
-  <si>
     <t>Best Scenario</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>results</t>
+  </si>
+  <si>
+    <t>bear btc</t>
+  </si>
+  <si>
+    <t>bull btc</t>
   </si>
 </sst>
 </file>
@@ -140,11 +140,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,7 +470,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -482,101 +482,117 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>7.0000000000000001E-3</v>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13.66</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>0.83</v>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
